--- a/game_code/Project3_JSON.xlsx
+++ b/game_code/Project3_JSON.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/allisonselwah/Downloads/MAT4376/project3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59082691-0033-1343-BB20-B937813C41B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10F72E73-CA79-5C42-B3B4-6D796F153EC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="15500" activeTab="3" xr2:uid="{6EDD1A62-DE87-8C47-BF8B-894AB25A08DC}"/>
   </bookViews>
   <sheets>
     <sheet name="AUC" sheetId="1" r:id="rId1"/>
-    <sheet name="SFL" sheetId="2" r:id="rId2"/>
+    <sheet name="SAF" sheetId="2" r:id="rId2"/>
     <sheet name="CWL" sheetId="3" r:id="rId3"/>
     <sheet name="QUE" sheetId="4" r:id="rId4"/>
   </sheets>
@@ -68,27 +68,12 @@
     <t>Don’t expect to wait that long at the Auckland airfield! The majority of the wait times were under 30 minutes, where most passengers experienced a quick passage through the queues with a mode of 2.5 minutes.</t>
   </si>
   <si>
-    <t>Over 1,700 flights landed in Vespuchia from the Saint Francois airfield, the country with the highest number of destined flights from SFL. There were almost double the amount of international flights than domestic flights out of this airfield.</t>
-  </si>
-  <si>
-    <t>The two highest destined cities from flights that departed from SFL were in Vespuchia and made up over 53% of departures.</t>
-  </si>
-  <si>
-    <t>Sundays were the busiest travel days for SFL and Tuesdays were the least busy travel days - if you’re looking to travel, we recommend traveling on Tuesdays for shorter lines and less crowded areas.</t>
-  </si>
-  <si>
     <t>The most flights departed the airfield at 10 AM and 12 PM, and the least flights departed 1 and 9 AM.</t>
   </si>
   <si>
-    <t>If you’re looking for shorter lines at security, we recommend visiting between 6 PM and 4 AM as there were no reported S2 scans during that time period at SFL.</t>
-  </si>
-  <si>
     <t>On average, the more security agents at S2, the lower the time you’ll have to wait in line.</t>
   </si>
   <si>
-    <t>The majority of passengers waited less than 16 minutes in line between S1 and S2 at the SFL airfield.</t>
-  </si>
-  <si>
     <t>There was one flight that departed from the Chebucto airfield, scheduled to depart early in the morning on Christmas Eve 2026.</t>
   </si>
   <si>
@@ -113,7 +98,22 @@
     <t>Did you know that there were only two years that flights were destined for the Chebucto airfield? All flights destined for Chebucto in 2030 left from the Saint Francois airfield and all flights destined for Chebucto in 2028 left from the Auckland airfield.</t>
   </si>
   <si>
-    <t>Did you know that there were over 100,000 passengers than landed in the Queenston airfield in 2028 and 2030 combined? And of those 100,000 only 379 of them occurred in 2030?</t>
+    <t>Over 1,700 flights landed in Vespuchia from the Saint Francois airfield, the country with the highest number of destined flights from SAF. There were almost double the amount of international flights than domestic flights out of this airfield.</t>
+  </si>
+  <si>
+    <t>The two highest destined cities from flights that departed from SAF were in Vespuchia and made up over 53% of departures.</t>
+  </si>
+  <si>
+    <t>Sundays were the busiest travel days for SAF and Tuesdays were the least busy travel days - if you’re looking to travel, we recommend traveling on Tuesdays for shorter lines and less crowded areas.</t>
+  </si>
+  <si>
+    <t>If you’re looking for shorter lines at security, we recommend visiting between 6 PM and 4 AM as there were no reported S2 scans during that time period at SAF.</t>
+  </si>
+  <si>
+    <t>The majority of passengers waited less than 16 minutes in line between S1 and S2 at the SAF airfield.</t>
+  </si>
+  <si>
+    <t>Did you know that there were over 100,000 passengers that landed in the Queenston airfield in 2028 and 2030 combined? And of those 100,000 only 379 of them occurred in 2030.</t>
   </si>
 </sst>
 </file>
@@ -235,7 +235,7 @@
   <autoFilter ref="A1:B8" xr:uid="{C62F07AF-9735-9C4F-A915-9F03F478753F}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{2C4CD334-7658-DC42-8B48-967FE34398D8}" name="order"/>
-    <tableColumn id="2" xr3:uid="{A97D24C8-7BBB-A246-A665-F439E59C7249}" name="fact" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{A97D24C8-7BBB-A246-A665-F439E59C7249}" name="fact" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -268,7 +268,7 @@
   <autoFilter ref="A1:B6" xr:uid="{8CE81DBC-0A3E-8343-9C37-B7A7132E48D1}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{C52A8EA2-C97A-6444-B548-C779A1BA9F62}" name="order"/>
-    <tableColumn id="2" xr3:uid="{599A1D81-8208-7346-BD56-06FD911B4B7D}" name="fact" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{599A1D81-8208-7346-BD56-06FD911B4B7D}" name="fact" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -659,7 +659,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B8"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -680,7 +680,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -688,7 +688,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -696,7 +696,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -704,7 +704,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -712,7 +712,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -720,7 +720,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -728,7 +728,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -765,7 +765,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -773,7 +773,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -781,7 +781,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -789,7 +789,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -805,7 +805,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -826,7 +826,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -834,7 +834,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -842,7 +842,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -850,7 +850,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
